--- a/Planilha Head Count.xlsx
+++ b/Planilha Head Count.xlsx
@@ -1,8 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29628"/>
-  <workbookPr defaultThemeVersion="202300"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29816"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/3564bbbbd3d06276/Área de trabalho - Profissional/"/>
@@ -15,7 +15,7 @@
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191028"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -268,9 +268,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="mm/yyyy"/>
+    <numFmt numFmtId="164" formatCode="mm/yyyy"/>
   </numFmts>
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -300,7 +300,7 @@
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -641,7 +641,7 @@
       <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="4.75" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11.375" style="1" bestFit="1" customWidth="1"/>
@@ -656,7 +656,7 @@
     <col min="11" max="11" width="4" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -691,7 +691,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11">
       <c r="A2">
         <v>1</v>
       </c>
@@ -726,7 +726,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11">
       <c r="A3">
         <v>2</v>
       </c>
@@ -761,7 +761,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11">
       <c r="A4">
         <v>3</v>
       </c>
@@ -796,7 +796,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11">
       <c r="A5">
         <v>4</v>
       </c>
@@ -831,7 +831,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11">
       <c r="A6">
         <v>5</v>
       </c>
@@ -866,7 +866,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11">
       <c r="A7">
         <v>6</v>
       </c>
@@ -901,7 +901,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11">
       <c r="A8">
         <v>7</v>
       </c>
@@ -936,7 +936,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11">
       <c r="A9">
         <v>8</v>
       </c>
@@ -971,7 +971,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11">
       <c r="A10">
         <v>9</v>
       </c>
@@ -1006,7 +1006,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11">
       <c r="A11">
         <v>10</v>
       </c>
@@ -1041,7 +1041,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11">
       <c r="A12">
         <v>11</v>
       </c>
@@ -1076,7 +1076,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11">
       <c r="A13">
         <v>12</v>
       </c>
@@ -1111,7 +1111,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11">
       <c r="A14">
         <v>13</v>
       </c>
@@ -1146,7 +1146,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11">
       <c r="A15">
         <v>14</v>
       </c>
@@ -1181,7 +1181,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11">
       <c r="A16">
         <v>15</v>
       </c>
@@ -1216,7 +1216,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11">
       <c r="A17">
         <v>16</v>
       </c>
@@ -1251,7 +1251,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11">
       <c r="A18">
         <v>18</v>
       </c>
@@ -1286,7 +1286,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11">
       <c r="A19">
         <v>19</v>
       </c>
@@ -1321,7 +1321,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11">
       <c r="A20">
         <v>20</v>
       </c>
@@ -1356,7 +1356,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11">
       <c r="A21">
         <v>21</v>
       </c>
@@ -1391,7 +1391,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11">
       <c r="A22">
         <v>22</v>
       </c>
@@ -1426,7 +1426,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11">
       <c r="A23">
         <v>24</v>
       </c>
@@ -1461,7 +1461,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11">
       <c r="A24">
         <v>25</v>
       </c>
@@ -1496,7 +1496,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11">
       <c r="A25">
         <v>26</v>
       </c>
@@ -1531,7 +1531,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11">
       <c r="A26">
         <v>27</v>
       </c>
@@ -1566,7 +1566,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11">
       <c r="A27">
         <v>28</v>
       </c>
@@ -1601,7 +1601,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11">
       <c r="A28">
         <v>29</v>
       </c>
@@ -1636,7 +1636,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:11">
       <c r="A29">
         <v>31</v>
       </c>
@@ -1671,7 +1671,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:11">
       <c r="A30">
         <v>32</v>
       </c>
@@ -1706,7 +1706,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:11">
       <c r="A31">
         <v>33</v>
       </c>
@@ -1741,7 +1741,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:11">
       <c r="A32">
         <v>34</v>
       </c>
@@ -1776,7 +1776,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:11">
       <c r="A33">
         <v>35</v>
       </c>
@@ -1811,7 +1811,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:11">
       <c r="A34">
         <v>36</v>
       </c>
@@ -1846,7 +1846,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:11">
       <c r="A35">
         <v>37</v>
       </c>
@@ -1881,7 +1881,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:11">
       <c r="A36">
         <v>38</v>
       </c>
@@ -1916,7 +1916,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:11">
       <c r="A37">
         <v>39</v>
       </c>
@@ -1951,7 +1951,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:11">
       <c r="A38">
         <v>40</v>
       </c>
@@ -1986,7 +1986,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:11">
       <c r="A39">
         <v>41</v>
       </c>
@@ -2021,7 +2021,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:11">
       <c r="A40">
         <v>43</v>
       </c>
@@ -2056,7 +2056,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:11">
       <c r="A41">
         <v>44</v>
       </c>
@@ -2091,7 +2091,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:11">
       <c r="A42">
         <v>45</v>
       </c>
@@ -2126,7 +2126,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:11">
       <c r="A43">
         <v>46</v>
       </c>
@@ -2161,7 +2161,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:11">
       <c r="A44">
         <v>47</v>
       </c>
@@ -2196,7 +2196,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:11">
       <c r="A45">
         <v>48</v>
       </c>
@@ -2231,7 +2231,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:11">
       <c r="A46">
         <v>49</v>
       </c>
@@ -2266,7 +2266,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:11">
       <c r="A47">
         <v>50</v>
       </c>
@@ -2301,7 +2301,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:11">
       <c r="A48">
         <v>51</v>
       </c>
@@ -2336,7 +2336,7 @@
         <v>-2</v>
       </c>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:11">
       <c r="A49">
         <v>52</v>
       </c>
@@ -2371,7 +2371,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:11">
       <c r="A50">
         <v>53</v>
       </c>
@@ -2406,7 +2406,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:11">
       <c r="A51">
         <v>54</v>
       </c>
@@ -2441,7 +2441,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:11">
       <c r="A52">
         <v>55</v>
       </c>
@@ -2476,7 +2476,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:11">
       <c r="A53">
         <v>56</v>
       </c>
@@ -2511,7 +2511,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:11">
       <c r="A54">
         <v>57</v>
       </c>
@@ -2546,7 +2546,7 @@
         <v>-3</v>
       </c>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:11">
       <c r="A55">
         <v>58</v>
       </c>
@@ -2581,7 +2581,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:11">
       <c r="A56">
         <v>59</v>
       </c>
@@ -2616,7 +2616,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:11">
       <c r="A57">
         <v>60</v>
       </c>
@@ -2651,7 +2651,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:11">
       <c r="A58">
         <v>61</v>
       </c>
@@ -2686,7 +2686,7 @@
         <v>-4</v>
       </c>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:11">
       <c r="A59">
         <v>62</v>
       </c>
@@ -2721,7 +2721,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:11">
       <c r="A60">
         <v>63</v>
       </c>
@@ -2756,7 +2756,7 @@
         <v>-2</v>
       </c>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:11">
       <c r="A61">
         <v>64</v>
       </c>
@@ -2791,7 +2791,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:11">
       <c r="A62">
         <v>65</v>
       </c>
@@ -2826,7 +2826,7 @@
         <v>-3</v>
       </c>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:11">
       <c r="A63">
         <v>66</v>
       </c>
@@ -2861,7 +2861,7 @@
         <v>-4</v>
       </c>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:11">
       <c r="A64">
         <v>67</v>
       </c>
@@ -2896,7 +2896,7 @@
         <v>-3</v>
       </c>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:11">
       <c r="A65">
         <v>68</v>
       </c>
@@ -2931,7 +2931,7 @@
         <v>-2</v>
       </c>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:11">
       <c r="A66">
         <v>69</v>
       </c>
@@ -2966,7 +2966,7 @@
         <v>-3</v>
       </c>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:11">
       <c r="A67">
         <v>70</v>
       </c>
@@ -3001,7 +3001,7 @@
         <v>-4</v>
       </c>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:11">
       <c r="A68">
         <v>71</v>
       </c>
@@ -3036,7 +3036,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:11">
       <c r="A69">
         <v>72</v>
       </c>
@@ -3071,7 +3071,7 @@
         <v>-5</v>
       </c>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:11">
       <c r="A70">
         <v>73</v>
       </c>
@@ -3106,7 +3106,7 @@
         <v>-4</v>
       </c>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:11">
       <c r="A71">
         <v>74</v>
       </c>
@@ -3141,7 +3141,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:11">
       <c r="A72">
         <v>75</v>
       </c>
@@ -3176,7 +3176,7 @@
         <v>-3</v>
       </c>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:11">
       <c r="A73">
         <v>76</v>
       </c>
@@ -3211,7 +3211,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:11">
       <c r="A74">
         <v>77</v>
       </c>
@@ -3246,7 +3246,7 @@
         <v>-4</v>
       </c>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:11">
       <c r="A75">
         <v>78</v>
       </c>
@@ -3281,7 +3281,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:11">
       <c r="A76">
         <v>79</v>
       </c>
@@ -3316,7 +3316,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:11">
       <c r="A77">
         <v>80</v>
       </c>
@@ -3351,7 +3351,7 @@
         <v>-4</v>
       </c>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:11">
       <c r="A78">
         <v>81</v>
       </c>
@@ -3386,7 +3386,7 @@
         <v>-4</v>
       </c>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:11">
       <c r="A79">
         <v>82</v>
       </c>
@@ -3421,7 +3421,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:11">
       <c r="A80">
         <v>83</v>
       </c>
@@ -3456,7 +3456,7 @@
         <v>-5</v>
       </c>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:11">
       <c r="A81">
         <v>84</v>
       </c>
@@ -3491,7 +3491,7 @@
         <v>-4</v>
       </c>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:11">
       <c r="A82">
         <v>85</v>
       </c>
@@ -3526,7 +3526,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:11">
       <c r="A83">
         <v>86</v>
       </c>
@@ -3561,7 +3561,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:11">
       <c r="A84">
         <v>87</v>
       </c>
@@ -3596,7 +3596,7 @@
         <v>-5</v>
       </c>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:11">
       <c r="A85">
         <v>88</v>
       </c>
@@ -3631,7 +3631,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:11">
       <c r="A86">
         <v>89</v>
       </c>
@@ -3666,7 +3666,7 @@
         <v>-4</v>
       </c>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:11">
       <c r="A87">
         <v>90</v>
       </c>
@@ -3701,7 +3701,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:11">
       <c r="A88">
         <v>91</v>
       </c>
@@ -3736,7 +3736,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:11">
       <c r="A89">
         <v>92</v>
       </c>
@@ -3771,7 +3771,7 @@
         <v>-5</v>
       </c>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:11">
       <c r="A90">
         <v>93</v>
       </c>
@@ -3806,7 +3806,7 @@
         <v>-2</v>
       </c>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:11">
       <c r="A91">
         <v>94</v>
       </c>
